--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.614</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.499</v>
+        <v>15.548</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.613</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.541</v>
+        <v>19.063</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.122</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.04516826720745</v>
+        <v>16.06956558017774</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.40696440967147</v>
+        <v>16.26786984509079</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.54923737358668</v>
+        <v>30.00521241472863</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.476365687479962</v>
+        <v>2.78081981391205</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.58285592622368</v>
+        <v>22.96547712149597</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.59911688140927</v>
+        <v>27.70805360096477</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.741463211544062</v>
+        <v>7.341524643278721</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.23840027246504</v>
+        <v>42.43167425562839</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.11597523262492</v>
+        <v>44.02056649281364</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.43095369359365</v>
+        <v>17.14516652273769</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.35534471934553</v>
+        <v>20.17997315139574</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.11974918798295</v>
+        <v>19.91816421452948</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.94821746310943</v>
+        <v>15.42735389697616</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.84322706484651</v>
+        <v>15.85295793253468</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.95112957742244</v>
+        <v>39.72824370709916</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.87776244613404</v>
+        <v>13.15434902860705</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.92233050284383</v>
+        <v>24.15567852247833</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.64751991008737</v>
+        <v>32.83967188607243</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.787817460274564</v>
+        <v>3.758729724239565</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.04715686315674</v>
+        <v>11.5353634708314</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.60065514451605</v>
+        <v>15.02711220275653</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.867453487051296</v>
+        <v>2.956365014406515</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.18721423211679</v>
+        <v>17.30836298142786</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.48704332395329</v>
+        <v>23.05600127982827</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.34342054634989</v>
+        <v>27.09666625059062</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.67219281946972</v>
+        <v>29.75146756324551</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.68826002871003</v>
+        <v>3.227092962420752</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.47638264672015</v>
+        <v>33.265291245497</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.97267079027182</v>
+        <v>32.78548672041858</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.612336581034352</v>
+        <v>7.971415196672194</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.20371729451804</v>
+        <v>45.75527047312738</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.38902299652543</v>
+        <v>46.00503087368521</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.91042229738427</v>
+        <v>46.15043369003271</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.07066866910399</v>
+        <v>49.76265589656605</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.98093736769694</v>
+        <v>51.70799704213827</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.98261875234248</v>
+        <v>31.27518157406661</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>45.41280482481123</v>
+        <v>49.47823429926297</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.8453928263363</v>
+        <v>55.73554240772608</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.89266925083455</v>
+        <v>20.32818747727357</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.5766647189167</v>
+        <v>30.76291949577805</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.77028024965215</v>
+        <v>34.29512723733956</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.95357738767914</v>
+        <v>5.177101820279873</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.14224746360043</v>
+        <v>28.82910958583777</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.48147711409917</v>
+        <v>34.68176784947373</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.525041263638009</v>
+        <v>3.853385018940102</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.70361536601931</v>
+        <v>45.26812729654955</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.465503903929715</v>
+        <v>8.048542684814546</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.32680694292544</v>
+        <v>22.50798622397067</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.9559267396126</v>
+        <v>28.76031024606488</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.6228537703095327</v>
+        <v>1.396982392332024</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.97949559824605</v>
+        <v>34.32389516487072</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.43370956895873</v>
+        <v>37.37802513532461</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.698389412426831</v>
+        <v>8.869525096906013</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.37009910912458</v>
+        <v>50.6183248243258</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.11676021620463</v>
+        <v>54.64342774734899</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.09214842935435</v>
+        <v>57.77629676627774</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.58504197148174</v>
+        <v>58.23366135475827</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>62.43110937609262</v>
+        <v>62.6417280079853</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.419788815338809</v>
+        <v>9.075934741374194</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.85495188423961</v>
+        <v>35.59521103146179</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.95365384099061</v>
+        <v>46.80495412373202</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.70302295193719</v>
+        <v>12.19242072147398</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.6280641708026</v>
+        <v>30.51710776935011</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.65564812110162</v>
+        <v>33.41858523167937</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.489387974540502</v>
+        <v>4.206499780559611</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.42203418525989</v>
+        <v>25.85181065235889</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.23792655248171</v>
+        <v>38.08328536548088</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.840420689364013</v>
+        <v>5.741073997527611</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.51210982991933</v>
+        <v>43.70600460215319</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.139084820015956</v>
+        <v>5.664928731524959</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.22496068328431</v>
+        <v>15.07378638040421</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.35213188883021</v>
+        <v>24.52029804496906</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.254276987189847</v>
+        <v>2.108131055374944</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.02412289542307</v>
+        <v>30.86835303667367</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.89349805262786</v>
+        <v>37.65392840601392</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.253691923390075</v>
+        <v>2.752922153957289</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.75544172790322</v>
+        <v>45.05497083129154</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.79066241931638</v>
+        <v>50.95483013501774</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47.65470351743669</v>
+        <v>46.80433430351201</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.70110881307761</v>
+        <v>49.36586691676614</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.39822200807148</v>
+        <v>55.99497503758317</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.331449441661366</v>
+        <v>6.689956570914035</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.99841188579614</v>
+        <v>24.81002417729779</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.54225843700814</v>
+        <v>49.90930211422486</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7.41948551677465</v>
+        <v>7.877966501397211</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.53538606531601</v>
+        <v>25.9088118607369</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.49360027422152</v>
+        <v>33.83685641578479</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.850778755724853</v>
+        <v>5.007017544013376</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.67365162127322</v>
+        <v>24.85654764450176</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.97919413949543</v>
+        <v>37.53138465024723</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.893404272747404</v>
+        <v>2.40461810678763</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.51261408410006</v>
+        <v>37.32923208401967</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.54481657511547</v>
+        <v>22.5015503603418</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.55813185256939</v>
+        <v>18.60151441846899</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.37867896727401</v>
+        <v>32.54884468940882</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.06422826034838</v>
+        <v>35.89034567125957</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.788341600068307</v>
+        <v>5.981812730426725</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>13.77344493329307</v>
+        <v>14.24733908981161</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.52234483600604</v>
+        <v>20.71853367236402</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.2582673710118</v>
+        <v>10.44498621039731</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.35306654181233</v>
+        <v>20.38712969070981</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.42969956275202</v>
+        <v>32.21159711349136</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.692586706535803</v>
+        <v>3.986874993606754</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>8.541337452291724</v>
+        <v>9.523921031421459</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>13.6218508656164</v>
+        <v>14.70562741343039</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.977453202121229</v>
+        <v>3.356250099890989</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>17.66847313128439</v>
+        <v>17.79936997178566</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.51096882753007</v>
+        <v>36.78151758338062</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.4178741418722</v>
+        <v>20.56547501651663</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.36293819607391</v>
+        <v>41.21699932799259</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.12021963410808</v>
+        <v>47.21970860907917</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.293405081602756</v>
+        <v>5.184730591832778</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.83024507231518</v>
+        <v>16.96580659524766</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.75027984063515</v>
+        <v>27.73119446167516</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.77932940497539</v>
+        <v>53.73146457519734</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.09606761958528</v>
+        <v>51.49295320931128</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.00409196737479</v>
+        <v>58.90786017883754</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.62348750946765</v>
+        <v>59.50044887336731</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.16346916395241</v>
+        <v>21.72020952407888</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.30884327228571</v>
+        <v>53.88472309327804</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>58.7336149200147</v>
+        <v>57.55992528730401</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.89549242531938</v>
+        <v>26.32754857744497</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.97312040827534</v>
+        <v>36.50132692108048</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.7638569420432</v>
+        <v>42.48506284892115</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5.355161258264999</v>
+        <v>6.41283346382286</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.09695094517889</v>
+        <v>39.27197960146796</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.53856266867444</v>
+        <v>43.57774430505371</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.873057333264363</v>
+        <v>7.147332567483105</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.79326457582057</v>
+        <v>60.2089815739643</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.23838126565022</v>
+        <v>65.78689913863678</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.98309224837439</v>
+        <v>74.5773000696035</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.77503333063717</v>
+        <v>79.87873199133219</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.08347210489751</v>
+        <v>82.07792096563261</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.5831981983332</v>
+        <v>30.82074288195274</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.92244472061766</v>
+        <v>71.84492642062612</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>76.69981713761301</v>
+        <v>75.73482769020967</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.9083843503367</v>
+        <v>57.56059152752739</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.1682470043124</v>
+        <v>43.03131509399673</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.04100946536026</v>
+        <v>49.0305757864776</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.48977551444614</v>
+        <v>58.39841437575348</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.211495303667068</v>
+        <v>10.46849096430392</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.40855370972368</v>
+        <v>49.65148823934894</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>57.06764046178772</v>
+        <v>56.003821576177</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.63920675227331</v>
+        <v>14.12602493824572</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.43893765304651</v>
+        <v>34.00329946741552</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.77672070876888</v>
+        <v>41.65603809167265</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.932269077161081</v>
+        <v>4.682232210560631</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.41550195180125</v>
+        <v>38.47417046489535</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.71736628326069</v>
+        <v>46.43382775234664</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.980090422219686</v>
+        <v>7.998784391721919</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.19228433118974</v>
+        <v>60.51714300673072</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.71118730441813</v>
+        <v>71.19085439042871</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>76.00009508262534</v>
+        <v>73.83344265803392</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>78.23298080479589</v>
+        <v>76.89667480744816</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>86.38972914072045</v>
+        <v>85.72755965595623</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12.33673666535939</v>
+        <v>13.33777146411665</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>66.31881230338975</v>
+        <v>64.7927490588535</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.33923308129522</v>
+        <v>77.24996586647526</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.20223919438534</v>
+        <v>54.70949865187673</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.14391119334211</v>
+        <v>25.85501020303649</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.60179885583428</v>
+        <v>33.23261895289414</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.24543897595492</v>
+        <v>43.66552744969631</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.179258177469229</v>
+        <v>6.960293917849786</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.65663919221399</v>
+        <v>45.40612840913398</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>56.65926749783459</v>
+        <v>54.85943332998019</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.257861265489158</v>
+        <v>9.878893870266687</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.84386334591346</v>
+        <v>32.25738041966429</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.70087796128364</v>
+        <v>44.45192529505074</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4.359784687080566</v>
+        <v>5.595000270264336</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.37392201356775</v>
+        <v>34.23276049436804</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.48998753441081</v>
+        <v>48.11812633307672</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.436610602556687</v>
+        <v>2.312940219048595</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.73040590011484</v>
+        <v>50.80975203126077</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.39169760762307</v>
+        <v>70.82563013353573</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.66999986419911</v>
+        <v>56.0867026469119</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.80258098977124</v>
+        <v>65.08126764978073</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.89300280305217</v>
+        <v>85.45436238515883</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6.031287433062328</v>
+        <v>6.766828203764209</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.2782705296555</v>
+        <v>54.29873009267988</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.50172412097925</v>
+        <v>74.98358339761739</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.95861222060003</v>
+        <v>14.1705518419422</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.10596582290683</v>
+        <v>16.99359402717747</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.80119415309294</v>
+        <v>27.73120041290974</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.527965818719792</v>
+        <v>2.461143758271803</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.70379090555418</v>
+        <v>19.52736372064024</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.66359601542499</v>
+        <v>22.16047014957334</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.567194306239294</v>
+        <v>7.048647007557175</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.93382149816659</v>
+        <v>38.69573800207768</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>43.26245235934897</v>
+        <v>40.43709297886503</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.37483639575189</v>
+        <v>19.92430675429088</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.63892662309702</v>
+        <v>24.96958249076722</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.66646905487078</v>
+        <v>24.99223000866043</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.32327504322132</v>
+        <v>18.39615345905548</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.64642904938672</v>
+        <v>17.95734553312568</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.17390130136455</v>
+        <v>38.46190007179341</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.134549878441437</v>
+        <v>9.85369408890887</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.74285388710458</v>
+        <v>24.13786045000256</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.89389303885909</v>
+        <v>28.39359399914482</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.195927805952941</v>
+        <v>0.08181269990057771</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.647437989440991</v>
+        <v>9.866235630155799</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.37403896611484</v>
+        <v>13.41814613534617</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.86826628779896</v>
+        <v>1.887467048814766</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.37322956475149</v>
+        <v>24.203359728701</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.14337694807034</v>
+        <v>17.24717906867051</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.86108947078305</v>
+        <v>23.87340755984091</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.84016804217509</v>
+        <v>27.98922172708571</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.779573673872072</v>
+        <v>2.695827839179302</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.40928979175756</v>
+        <v>30.54545101865241</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.41728168809508</v>
+        <v>31.34808547984915</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.043059882205057</v>
+        <v>7.407667394750369</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.34332864308644</v>
+        <v>45.28431969616975</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>48.59141957542876</v>
+        <v>46.22366462648063</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.73530962290884</v>
+        <v>44.47592796651372</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.53871995642074</v>
+        <v>50.09945433019725</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>52.17560659057655</v>
+        <v>50.19336276302427</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.90379247575853</v>
+        <v>24.48827218494766</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>48.99271298096861</v>
+        <v>48.32737885395405</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.0268992565333</v>
+        <v>51.55925475385691</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.47067040449569</v>
+        <v>17.96914803433716</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.75967680686163</v>
+        <v>30.21686834862589</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.218437954401</v>
+        <v>33.38774512896862</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.3402544392488061</v>
+        <v>1.421091414426591</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.96564618860549</v>
+        <v>30.07917199987323</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.57740448538851</v>
+        <v>31.94082389825959</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.465761170030703</v>
+        <v>3.18617435317951</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>49.38694799879049</v>
+        <v>47.94909256820196</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.458130629292349</v>
+        <v>6.006312445985849</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.29181230902947</v>
+        <v>17.56302214061984</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.03219413205278</v>
+        <v>25.35148496670822</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.1618105816841897</v>
+        <v>1.39502036220421</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.48800419363255</v>
+        <v>28.76226095853874</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.28268048049773</v>
+        <v>31.09717037927685</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.092645942837855</v>
+        <v>7.039329958506126</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.083066637516</v>
+        <v>43.18842000725719</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.39187493423975</v>
+        <v>48.94627612028047</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.53547271457478</v>
+        <v>49.58408136728286</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.61870227526718</v>
+        <v>51.30615599421252</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>61.07705901852508</v>
+        <v>58.49670301681559</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.214742559748437</v>
+        <v>5.927316744337723</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.19217232067269</v>
+        <v>30.96649676798974</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.69021285514012</v>
+        <v>38.73448360213295</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.125404291303798</v>
+        <v>8.523311185266309</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.72933663396904</v>
+        <v>28.14961320610339</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.18880263704188</v>
+        <v>31.67517820423598</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.4465448234699352</v>
+        <v>0.9795677153798366</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.28836873031792</v>
+        <v>24.70746300664926</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.47813249980327</v>
+        <v>33.83190635223566</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.439649321361411</v>
+        <v>4.611214596495312</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.40694260808773</v>
+        <v>42.46876677657119</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.190464447399908</v>
+        <v>4.152681938771032</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.08276705221258</v>
+        <v>13.51651830771973</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.8478856735305</v>
+        <v>24.10308903339569</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.2383055572207056</v>
+        <v>1.164031132591521</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.77756833925984</v>
+        <v>25.79119591320265</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.81982312636349</v>
+        <v>33.24680922729618</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.266283697757981</v>
+        <v>2.152101466812827</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.55241070526708</v>
+        <v>39.9260080688856</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.39222082269076</v>
+        <v>47.70979330324058</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49.44426107261737</v>
+        <v>46.21261999389957</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.64915375080822</v>
+        <v>49.31045860296353</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>58.10822085182605</v>
+        <v>55.12505113494937</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.325111551395437</v>
+        <v>4.281365213230345</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.81071392444018</v>
+        <v>25.86041738612002</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.69492139974723</v>
+        <v>43.14306803085842</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.30278599045992</v>
+        <v>5.939170170385268</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.32332138421791</v>
+        <v>23.78148471439243</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.98463964903133</v>
+        <v>30.26670257513634</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.2985137380901719</v>
+        <v>0.9535684820474941</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.86459207954764</v>
+        <v>21.35171853133522</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.15660499080052</v>
+        <v>30.70457815257013</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.033817480846754</v>
+        <v>1.963081163978693</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.87038818748477</v>
+        <v>34.25933687896561</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.55551250283198</v>
+        <v>25.67902615728384</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.73516697308222</v>
+        <v>20.63106140666872</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.87916167181258</v>
+        <v>35.62418008540781</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.44162550253208</v>
+        <v>36.38979702991301</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.067207448867102</v>
+        <v>8.188283561707888</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.29697500431852</v>
+        <v>17.93684932880812</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.96023051184881</v>
+        <v>25.04262185940311</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.92702940655106</v>
+        <v>12.3833025240286</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.59026918502731</v>
+        <v>24.32192245477444</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.3308785805997</v>
+        <v>34.40138083001574</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1.062326574124256</v>
+        <v>0.1139333386573682</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.200438167629741</v>
+        <v>8.500614307207414</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.9098779117744</v>
+        <v>16.47573137074634</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.764771821234426</v>
+        <v>2.622932897742423</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.95856938259526</v>
+        <v>23.96270121447504</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.6577673934248</v>
+        <v>45.0377219068238</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.09692601685294</v>
+        <v>24.51014616619214</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.6642660420694</v>
+        <v>43.13940344258099</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.06312130641216</v>
+        <v>50.03780215555057</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.734932614252457</v>
+        <v>7.108167506484737</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.94285358513027</v>
+        <v>22.14074424668146</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.89914583502495</v>
+        <v>36.14099899258194</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.48619602095428</v>
+        <v>53.48560759401833</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.02558932990358</v>
+        <v>48.95762264999171</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>58.96519722626118</v>
+        <v>56.93713132209812</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.29271441266852</v>
+        <v>54.78058270062475</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.16374938253961</v>
+        <v>19.27648721327718</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.63570346569513</v>
+        <v>52.3203235120883</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.63103201385481</v>
+        <v>55.5535722239035</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.00740597126037</v>
+        <v>23.92877652657101</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.27727909566461</v>
+        <v>35.83021841583163</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.20045827204956</v>
+        <v>42.46239947719985</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1.249366700037967</v>
+        <v>2.404916651693377</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.35086844188849</v>
+        <v>41.23329531879502</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.0453234211995</v>
+        <v>42.99900571304924</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.837447915259521</v>
+        <v>6.721661038874668</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>64.17122786028828</v>
+        <v>61.93212484873333</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.74024391922539</v>
+        <v>65.72722409313175</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>73.57144121919271</v>
+        <v>70.75798841870031</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.43647302380313</v>
+        <v>75.68977142696241</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.40039613882998</v>
+        <v>79.15085148089412</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.70535364843946</v>
+        <v>29.0413423542235</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>73.62600495705512</v>
+        <v>71.40155161939758</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.88983684175049</v>
+        <v>73.56919692638506</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.57616665978743</v>
+        <v>54.96663906194455</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>45.65155111943041</v>
+        <v>43.77453335941358</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49.73595571713632</v>
+        <v>48.05491432448343</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.96182640230073</v>
+        <v>55.90420676160973</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.232578749261421</v>
+        <v>8.653675900499493</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>47.9710249746261</v>
+        <v>46.5125487696576</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>54.64883324829273</v>
+        <v>52.7909221151676</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.36685043033316</v>
+        <v>12.1108894923007</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.28510553600522</v>
+        <v>32.82627381815582</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.62046366648501</v>
+        <v>41.18424808805607</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.5784075526129975</v>
+        <v>1.120215152598</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.67707726022358</v>
+        <v>35.81017297024</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.38774688927073</v>
+        <v>43.37828622965855</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.73392484073182</v>
+        <v>7.046763334004829</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>59.53259926583384</v>
+        <v>57.55207057156509</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.28718996629425</v>
+        <v>69.29512077539678</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.82101172229972</v>
+        <v>67.7212288933282</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>75.55855712969758</v>
+        <v>73.22869478271417</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.20917365592915</v>
+        <v>82.91083849305045</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.73295187363667</v>
+        <v>12.69361640436283</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.89744611983168</v>
+        <v>67.17711149842853</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>76.84695121008542</v>
+        <v>74.27801861389287</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.83757431412018</v>
+        <v>49.12444207663592</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.39835120623365</v>
+        <v>25.72449770664936</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.97421375548281</v>
+        <v>31.98129382091964</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.39062269602596</v>
+        <v>38.45268955226155</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.818531745792868</v>
+        <v>6.233829980431889</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>41.74687480079427</v>
+        <v>39.65236073611048</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.98495690955227</v>
+        <v>48.1806256600279</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.075479748585384</v>
+        <v>9.021195313262108</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.35181777369771</v>
+        <v>30.72821944819066</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.31170873434556</v>
+        <v>42.57790232374709</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.09634179690061018</v>
+        <v>1.313623695726104</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.28206730389857</v>
+        <v>33.20611333769492</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>44.14633704031981</v>
+        <v>43.20775994157404</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.167171962437369</v>
+        <v>2.540475114957118</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.83754598375439</v>
+        <v>52.70284584894719</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70.7032898829126</v>
+        <v>68.5470407775671</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.25506207708275</v>
+        <v>56.85225874603086</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>71.78331702038761</v>
+        <v>68.76330083545828</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>83.37292476331287</v>
+        <v>80.73890386663905</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.512368959847095</v>
+        <v>8.08183689848088</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>65.68595474518085</v>
+        <v>62.1615384518602</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>77.40106303614792</v>
+        <v>74.58948009628715</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.450320702658551</v>
+        <v>9.692726629054157</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.65473068429825</v>
+        <v>11.64282607034175</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.31171583718517</v>
+        <v>20.81114775552272</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.5128580417585269</v>
+        <v>1.500777612288349</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.19715486190753</v>
+        <v>12.70846980827062</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.42597421551658</v>
+        <v>14.03377283587549</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.423356058576168</v>
+        <v>5.113791218723971</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.30455278211088</v>
+        <v>26.61507652417459</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.76486673705</v>
+        <v>28.80222979699146</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.89845402132788</v>
+        <v>13.7159248026069</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.90968789209845</v>
+        <v>17.72884693655295</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.18436049413921</v>
+        <v>17.87103356672177</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.99730982845361</v>
+        <v>14.02996204860207</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.15051829746261</v>
+        <v>12.5795204753987</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.89966281766872</v>
+        <v>27.5600633918183</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.259881946202796</v>
+        <v>10.00103853186009</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.12678179341783</v>
+        <v>24.40300586771767</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.03889098890664</v>
+        <v>28.4279887753771</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.560077973440087</v>
+        <v>-0.3094235857574361</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.845450413851854</v>
+        <v>9.197921520190302</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.40619080755454</v>
+        <v>14.14882218859234</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.106054731933167</v>
+        <v>1.921960950783316</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.68175877374738</v>
+        <v>25.30016438588554</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.62775332176474</v>
+        <v>12.55795926642464</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.4869775314395</v>
+        <v>18.71264806792848</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.39099434521086</v>
+        <v>21.85380686716246</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.2183621188183587</v>
+        <v>1.217705565723566</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.85475315368841</v>
+        <v>24.30527851673756</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.34823564399908</v>
+        <v>25.56581552010423</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.664466502062517</v>
+        <v>4.581735353717956</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.36097480928768</v>
+        <v>36.32727187180371</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.03563897752744</v>
+        <v>36.9720739267201</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.74239373821302</v>
+        <v>35.71495234411236</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.00539379470424</v>
+        <v>42.40970400475866</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.08930063904013</v>
+        <v>42.59752167679411</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>16.8974948246594</v>
+        <v>18.24540493944963</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.77610995408725</v>
+        <v>38.28933614473499</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.99239181188314</v>
+        <v>41.07032796725068</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.74250505274934</v>
+        <v>17.47357624797053</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.46540616723656</v>
+        <v>30.81038803879807</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.49465651093453</v>
+        <v>33.50599691257712</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.3954828831348927</v>
+        <v>0.818659869812592</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.9020086520799</v>
+        <v>30.86171038883633</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.84822126271803</v>
+        <v>33.68992318165145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.776778514614403</v>
+        <v>2.55101078667786</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>51.46710402049557</v>
+        <v>49.3801131562192</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.404050044579431</v>
+        <v>4.211280239745211</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.34977559556211</v>
+        <v>13.37606429047384</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.92296261440406</v>
+        <v>21.12769349198747</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-0.6388932096991482</v>
+        <v>0.4623918901636515</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.3122545899176</v>
+        <v>22.76955614984695</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.4339060015824</v>
+        <v>24.65197341926306</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.458180465267759</v>
+        <v>6.477940204339887</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.8779520252514</v>
+        <v>36.56198888887985</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.25967728803045</v>
+        <v>40.68790022279157</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.04200489063657</v>
+        <v>40.06886038710362</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.32074578012322</v>
+        <v>41.95320794735618</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>53.11999202233065</v>
+        <v>51.77012168320779</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.702348484211139</v>
+        <v>3.7274478017777</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.59850224548269</v>
+        <v>23.61325221106822</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.43311289677974</v>
+        <v>30.4650969485443</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.00522137103166</v>
+        <v>10.03207782977837</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.65882918580869</v>
+        <v>29.64967888700241</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.62711769508159</v>
+        <v>32.63123904389553</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.4913333179312893</v>
+        <v>0.6626639371764718</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.8879490371745</v>
+        <v>26.82037760677302</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.09129408921147</v>
+        <v>34.1566899220584</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.397213195424506</v>
+        <v>5.044365451910267</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>49.46475895800071</v>
+        <v>46.68894374186173</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.9579690550223283</v>
+        <v>2.200514391477576</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>8.167270864023838</v>
+        <v>9.285348222334555</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.96923117383021</v>
+        <v>20.01955793690285</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-0.9822447641119894</v>
+        <v>-0.0112598320246029</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.79099639088848</v>
+        <v>17.34074262071493</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.00090440541165</v>
+        <v>27.02952884961161</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.1525085876790868</v>
+        <v>0.8521118235409482</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.2025201942751</v>
+        <v>29.83427393006262</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.6515632054403</v>
+        <v>39.0063459796642</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.54349014917732</v>
+        <v>34.17423315398766</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.07965980042741</v>
+        <v>37.51570642847462</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>47.07597924583303</v>
+        <v>45.86576401768615</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.9978754928433027</v>
+        <v>2.139988987044738</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.2196861467549</v>
+        <v>19.51818428422731</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.09596375761006</v>
+        <v>35.36633383463748</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.68562826995959</v>
+        <v>7.015973303341212</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.76006757170412</v>
+        <v>25.70609121118971</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.03700438268862</v>
+        <v>30.92675617390225</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.6864623291658525</v>
+        <v>0.5228303158349092</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.9532177610658</v>
+        <v>23.01227259697464</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.24396021404494</v>
+        <v>31.44885603348818</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.6610011929104438</v>
+        <v>1.527696971260433</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>39.45839932663665</v>
+        <v>37.1415861650595</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.49917033908249</v>
+        <v>28.92034124567018</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.18884910145148</v>
+        <v>21.63744858652284</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>38.9190647618824</v>
+        <v>37.27289381580695</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.07223444203402</v>
+        <v>37.59591330204552</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.538658281688669</v>
+        <v>8.575092599847988</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.10423433299214</v>
+        <v>20.20771320597366</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.30036983224564</v>
+        <v>27.77334267216841</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.49477212170781</v>
+        <v>13.57211328114817</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.28334005284841</v>
+        <v>25.72635695910128</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.90690304337006</v>
+        <v>36.52182421946839</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.641696001231857</v>
+        <v>-0.5100424138105168</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.022636926572773</v>
+        <v>7.528302590575237</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.92385528508565</v>
+        <v>14.82930130728055</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1.202668053864723</v>
+        <v>2.069269287929785</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.35652746903537</v>
+        <v>23.58849033568556</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.67125999944778</v>
+        <v>44.44911106014115</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.98680227510988</v>
+        <v>26.02529619872929</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>47.39071051783775</v>
+        <v>45.49359360471188</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.07859933206538</v>
+        <v>50.92417659830558</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.678381996141528</v>
+        <v>7.064707881827868</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.33110439460224</v>
+        <v>21.7489832170425</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.76360745014145</v>
+        <v>35.29127011612214</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.52702394979632</v>
+        <v>54.33142287577873</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.06477535134701</v>
+        <v>50.78013226163156</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>59.61554482003946</v>
+        <v>57.48364610143867</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>58.8217823506381</v>
+        <v>56.80354841941611</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.29127646692394</v>
+        <v>18.65913941091753</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>56.43404463671509</v>
+        <v>53.89433483218136</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>59.34446785291732</v>
+        <v>56.92379246990307</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.71660973155142</v>
+        <v>23.49465606208732</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.41521901400203</v>
+        <v>36.78805881930057</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>45.63754149530351</v>
+        <v>44.43045351763915</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.4695340134542967</v>
+        <v>1.700846746587523</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.83247627053457</v>
+        <v>43.26663813335307</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.79900244436483</v>
+        <v>46.08084842272687</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>4.693516715464138</v>
+        <v>5.721489529404202</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.77781205397235</v>
+        <v>64.78007857909535</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.67784797274665</v>
+        <v>68.20079444733265</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>76.71430055123726</v>
+        <v>73.23809335900503</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>80.83904209203372</v>
+        <v>78.29882817674402</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>83.80922609440539</v>
+        <v>81.16720075546394</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.65408998167251</v>
+        <v>28.94424694857625</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.50283285321221</v>
+        <v>74.67678133357411</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>79.37868432681515</v>
+        <v>76.43748771872218</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>59.84030360537541</v>
+        <v>57.57105001898333</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>49.13915309970436</v>
+        <v>46.61694049627724</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>53.92605648003999</v>
+        <v>51.33818865182106</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>60.09104417637448</v>
+        <v>57.51860628266205</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.28663634308192</v>
+        <v>11.0541117833287</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>51.88093485559692</v>
+        <v>49.57075103847862</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.93224736609967</v>
+        <v>55.33596450348082</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.5271283421756</v>
+        <v>13.84688595469319</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.43426550912731</v>
+        <v>34.54589652807085</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.66118515140604</v>
+        <v>43.54657648337393</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.9129207981909815</v>
+        <v>0.9311038026652518</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.02694981711988</v>
+        <v>39.30053036644112</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.74679507665823</v>
+        <v>44.41328233027092</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.850574956497169</v>
+        <v>7.224886211106806</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.930651355791</v>
+        <v>63.64120023340952</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.09337480147668</v>
+        <v>72.37780048624846</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>76.10607551725435</v>
+        <v>72.86516932853465</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>81.56458171856293</v>
+        <v>78.15131612403773</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>87.72881396768676</v>
+        <v>85.00223301958921</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.75783912456854</v>
+        <v>13.32845965715993</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>76.28712948751915</v>
+        <v>72.46971062797711</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>81.61503891725621</v>
+        <v>78.22513125264013</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.06486928452676</v>
+        <v>50.73351716810404</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.8466453127412</v>
+        <v>29.34696053106106</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.49742962693713</v>
+        <v>35.61940778180487</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.63653962012577</v>
+        <v>41.7618106019527</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.884242563214659</v>
+        <v>7.831243340117947</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.97872459682891</v>
+        <v>41.03080686846778</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>51.27410222202786</v>
+        <v>49.06209932268209</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>9.294255357087842</v>
+        <v>10.02323837801534</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.37477229429467</v>
+        <v>32.38566100160381</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.56553933673943</v>
+        <v>44.42625598518214</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.4955588881561006</v>
+        <v>0.7003008300961966</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.53064093975892</v>
+        <v>35.85507755927443</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.28050059997616</v>
+        <v>44.17746655420038</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.7429115100979615</v>
+        <v>1.886661579906697</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.72669657069082</v>
+        <v>57.52352626714237</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>73.27948850382619</v>
+        <v>70.75457599218419</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.24057754533099</v>
+        <v>62.67499064206446</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.02682661305846</v>
+        <v>73.993029420174</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>86.87252693733814</v>
+        <v>83.60369183441256</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.429253151424163</v>
+        <v>8.771577931260495</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>72.39111764001591</v>
+        <v>67.9386530950426</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>80.47888980744615</v>
+        <v>77.16361349627616</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.81719788477121</v>
+        <v>14.45295070007506</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.68754474676889</v>
+        <v>14.7853600137902</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.1243646511058</v>
+        <v>24.59850557879023</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.193868643572205</v>
+        <v>4.418265450954653</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.07945398486186</v>
+        <v>18.40008588786385</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.23891047823392</v>
+        <v>21.7935534985056</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.911330784245351</v>
+        <v>8.543226979201819</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.14903098035173</v>
+        <v>32.08326568417552</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.1178713068235</v>
+        <v>33.66114226326603</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.62481775087293</v>
+        <v>14.73615516713427</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.21698753821713</v>
+        <v>17.4364879742665</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.60191333221824</v>
+        <v>17.59275642830262</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.55338708966027</v>
+        <v>15.34997333645321</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.42840816279523</v>
+        <v>13.20055775753139</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.54678369562353</v>
+        <v>28.29210461248869</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.67928298270515</v>
+        <v>11.20882160968195</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.87373790322379</v>
+        <v>19.55733389517696</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.82804314631262</v>
+        <v>29.09159866840687</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.777326208237735</v>
+        <v>7.748536886687639</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.8848148785473</v>
+        <v>12.14588796024438</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.34115676067995</v>
+        <v>15.8422576706146</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.019398613245645</v>
+        <v>4.235480704940688</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.88800329237129</v>
+        <v>14.03059014239447</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.83306658246314</v>
+        <v>19.48954545229248</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.67569004050833</v>
+        <v>24.0264330692036</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.03138034433723</v>
+        <v>25.79804304981387</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.398181189053627</v>
+        <v>4.578775297410651</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.66431171014845</v>
+        <v>28.92527532422902</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.13630508846727</v>
+        <v>29.24192899064545</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.563716179739227</v>
+        <v>8.177824978265875</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.47214099927253</v>
+        <v>37.60814878729285</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.94869319703098</v>
+        <v>38.03871066266716</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.49075616435789</v>
+        <v>40.50393271434871</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.3319017323997</v>
+        <v>44.57736488369359</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.18035290901723</v>
+        <v>45.76951329924857</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.28511249887357</v>
+        <v>27.11640055376319</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.89874826250428</v>
+        <v>41.68485915411931</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>45.23431257726639</v>
+        <v>45.77134656726007</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.06722823816922</v>
+        <v>16.57242521380589</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.74136858129585</v>
+        <v>23.84925295290081</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.11367751542446</v>
+        <v>28.95272394760836</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.806663232748612</v>
+        <v>8.330503874097769</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.71918545742867</v>
+        <v>24.17936588815498</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.3332390790913</v>
+        <v>31.26194950734856</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.38274792756408</v>
+        <v>35.42615471030162</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.4110938686685</v>
+        <v>10.46576702476476</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.88155056857987</v>
+        <v>22.00489983852017</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.33437255823537</v>
+        <v>27.4200996371434</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.828240178279135</v>
+        <v>3.462942009068151</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.99711064528685</v>
+        <v>30.79755316664197</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.47230554378439</v>
+        <v>33.72413300234094</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.693323188367273</v>
+        <v>10.04067171625265</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.44414720264808</v>
+        <v>44.4749024592109</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.97392845663184</v>
+        <v>47.62804908609841</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>47.26904772465247</v>
+        <v>47.3361730906143</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>48.43817644533512</v>
+        <v>48.42455627868276</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.65205518725153</v>
+        <v>52.74763204092874</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.348372218894</v>
+        <v>12.23653332821343</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.61771759692409</v>
+        <v>34.87139382574218</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.75593181846549</v>
+        <v>42.38383160580929</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.79154366508677</v>
+        <v>12.34188964287778</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.98014455203909</v>
+        <v>26.01844634785914</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.4886563735169</v>
+        <v>29.31671914917117</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.527144701366627</v>
+        <v>7.985800591000245</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.74383263673182</v>
+        <v>23.56610313924786</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.17193386504759</v>
+        <v>34.56924628731156</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>6.501893584834392</v>
+        <v>7.069892625054241</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.68073215199545</v>
+        <v>36.49342842851101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>6.477651911153689</v>
+        <v>7.1097071702211</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.92847185839608</v>
+        <v>14.70985354229206</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.76488358761874</v>
+        <v>22.44008759374417</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>2.836964515884691</v>
+        <v>3.634547594861054</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.83948084164562</v>
+        <v>27.07866873379403</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.9636496529351</v>
+        <v>33.23897801991158</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.328214861907913</v>
+        <v>4.0131893097094</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.83511791204343</v>
+        <v>37.34055977313979</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.25619834249479</v>
+        <v>42.74811325719883</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.27803808687424</v>
+        <v>36.20499930627042</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.508166802415</v>
+        <v>38.78922329928213</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.37120899946281</v>
+        <v>44.33464244488383</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.393903415804946</v>
+        <v>8.272006732025464</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.58196720427135</v>
+        <v>24.51379978368461</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.78430383238064</v>
+        <v>43.87577502458157</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>7.589648044305601</v>
+        <v>8.301258412643559</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.45454754950472</v>
+        <v>22.01453732023082</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.77787173154277</v>
+        <v>28.52798154504182</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.083611375178918</v>
+        <v>8.414058111450753</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.93732939499396</v>
+        <v>22.56529237507288</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.32980009292869</v>
+        <v>32.88600791675849</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.681339334012012</v>
+        <v>3.466302547432701</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.41204144675748</v>
+        <v>30.99635578076406</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>17.84074828362288</v>
+        <v>18.89969113805248</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.98330903573337</v>
+        <v>15.96247415545112</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.38473444179474</v>
+        <v>30.09751062169272</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.99203041656341</v>
+        <v>33.2557297401726</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.776534145566583</v>
+        <v>6.424075757764264</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.30221118868184</v>
+        <v>12.50097231059624</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.41152840106666</v>
+        <v>17.52803617934283</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.52251221101771</v>
+        <v>10.92189325351215</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.33835549200052</v>
+        <v>18.99986644516789</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.03126290530019</v>
+        <v>29.43879478618119</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.764258743949508</v>
+        <v>7.981240435549338</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.82404762327682</v>
+        <v>11.32927617873876</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.56861789192551</v>
+        <v>15.01382685384809</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.220891378756285</v>
+        <v>4.615757518204159</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.11364115754906</v>
+        <v>15.8864101974142</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.22889899104461</v>
+        <v>32.73639951132101</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.3772332845734</v>
+        <v>18.2495229539617</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.42024522209529</v>
+        <v>37.74821225909062</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.39487742567592</v>
+        <v>42.40266869990876</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.131737095718144</v>
+        <v>5.995350732048642</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.42424440238884</v>
+        <v>14.58904752291043</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.32276455103533</v>
+        <v>23.27464180210265</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.34413103949409</v>
+        <v>45.17089232225894</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.69427320019319</v>
+        <v>39.72088387244485</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.54129506251563</v>
+        <v>49.29775719097413</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.85262885457836</v>
+        <v>52.20341478183738</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.69805976043341</v>
+        <v>18.05862093442528</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.752299343477</v>
+        <v>43.54238116593878</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.90116104025795</v>
+        <v>47.08677823234112</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.89485792353337</v>
+        <v>23.35191029118322</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.43629859052385</v>
+        <v>31.49118298318991</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.90912418218177</v>
+        <v>39.25343852749391</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.234397776941517</v>
+        <v>9.52803105589544</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.82728785356157</v>
+        <v>34.53645579572568</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.72058512675047</v>
+        <v>40.24115667728466</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.297373005113744</v>
+        <v>7.838740675106443</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.96817132534461</v>
+        <v>50.95081824363447</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.73877361197763</v>
+        <v>60.70927880048841</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.75708569134098</v>
+        <v>64.06181127698694</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>72.01083932770617</v>
+        <v>71.95479790273376</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.15481656803335</v>
+        <v>76.44355239023258</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.8882523484215</v>
+        <v>28.05141036973625</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>61.68228882377225</v>
+        <v>62.55365623021165</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>66.36209758760282</v>
+        <v>66.80680690603819</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.09835381386583</v>
+        <v>50.3609922281496</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.30021824887382</v>
+        <v>35.13246355855541</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.17401675718017</v>
+        <v>40.09449702562995</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>50.17615046347742</v>
+        <v>50.47492024063476</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.05819990931273</v>
+        <v>12.61494704245136</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.79706094694367</v>
+        <v>41.68713391608493</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.51994993151373</v>
+        <v>46.30925017516563</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.05945283019137</v>
+        <v>16.16685448861471</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.18780216518694</v>
+        <v>30.68457397828689</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.05490522072096</v>
+        <v>39.27246940477931</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>8.218885132817192</v>
+        <v>8.681805463539103</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.62942879521225</v>
+        <v>35.0807776921805</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.57408746999921</v>
+        <v>42.7614215426405</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.418140411416303</v>
+        <v>9.888129372665052</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>52.41388672094155</v>
+        <v>53.20324456300153</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.87041469667776</v>
+        <v>66.39789025565271</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.78578171413149</v>
+        <v>64.10170058692849</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.11580392629314</v>
+        <v>68.7823900869201</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.10653504115126</v>
+        <v>78.70064784615757</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.48332861030164</v>
+        <v>17.32559482081768</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>55.70545259182631</v>
+        <v>55.14071145256997</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>67.81176710757178</v>
+        <v>66.36228127341546</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.84422982666666</v>
+        <v>44.60695999199223</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.14695032548835</v>
+        <v>21.14551610673705</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.12826893785448</v>
+        <v>27.31094801093549</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.6773376233222</v>
+        <v>36.70946381678087</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>7.642103125607562</v>
+        <v>8.276442932254721</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.98676723876506</v>
+        <v>37.47323372350425</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.79490594488942</v>
+        <v>44.25636177031065</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.61240432621302</v>
+        <v>11.83783544597772</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.94659383350329</v>
+        <v>29.19672833333557</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.2727970356824</v>
+        <v>41.40668225547216</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9.158294051407442</v>
+        <v>9.401459063804719</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.82938460458184</v>
+        <v>31.13973174920282</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.7641840350708</v>
+        <v>44.67385747292809</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.087183533414841</v>
+        <v>3.799146624329488</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.80628656072919</v>
+        <v>44.36590946006687</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.35730405861069</v>
+        <v>65.21255358450844</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.31000292098922</v>
+        <v>48.61524250068889</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.62737782444527</v>
+        <v>57.13833538111469</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.73175618944629</v>
+        <v>77.24900477423741</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.021413786776147</v>
+        <v>9.167188731426251</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.18978559423044</v>
+        <v>45.63477637388878</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.98614682573636</v>
+        <v>65.73426225292823</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.79920845558209</v>
+        <v>14.32072473256298</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.67449425553786</v>
+        <v>14.69217774632073</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.97069829855191</v>
+        <v>26.01099633979391</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4.65640399094854</v>
+        <v>4.696397730995724</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.58914679723677</v>
+        <v>20.19658684885357</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.3592060218708</v>
+        <v>24.08867298760166</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.504985515569391</v>
+        <v>8.125128911898972</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.08520711118162</v>
+        <v>34.63236971441189</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.40950756929963</v>
+        <v>36.30017241053233</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>15.8103231768565</v>
+        <v>15.61261699456482</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.23965760137059</v>
+        <v>18.18970686062229</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>18.78373340343887</v>
+        <v>18.47591227073496</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.07886397747759</v>
+        <v>15.73455611488969</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.40077074215907</v>
+        <v>14.00461047532885</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.67711151369242</v>
+        <v>30.90937532314167</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.32384974817865</v>
+        <v>12.30539525699872</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.65248156639032</v>
+        <v>21.67219213664238</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.06392703304557</v>
+        <v>31.54577718945068</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.833277201402407</v>
+        <v>8.475448880658739</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>14.90054123037594</v>
+        <v>14.32863710327435</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>18.33101974459934</v>
+        <v>18.14765357736221</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.602399436177539</v>
+        <v>4.755459982313411</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.22621507139121</v>
+        <v>17.32548698692057</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.77650188703048</v>
+        <v>20.2486080998904</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.65291887528842</v>
+        <v>24.83499441309345</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.48951735224183</v>
+        <v>27.01183934351808</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>4.003084635511893</v>
+        <v>4.94038837440414</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.4871991123538</v>
+        <v>31.29268965187866</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.89065135505719</v>
+        <v>31.51537420984054</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>7.827929891835165</v>
+        <v>8.34057029239175</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.02519217739491</v>
+        <v>39.79622567706831</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.33410252278008</v>
+        <v>40.15521458047427</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.45229086950621</v>
+        <v>42.07726471768532</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.57139856995921</v>
+        <v>45.56958686971609</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.95469386111877</v>
+        <v>46.4956281501108</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.12692275083474</v>
+        <v>28.13265209461572</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.39526628018547</v>
+        <v>43.35929722454432</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.19728114289496</v>
+        <v>47.73471087453566</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.2448963232048</v>
+        <v>18.9293549122488</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.4481343221595</v>
+        <v>26.66795701262365</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.66159858018831</v>
+        <v>30.88212026547743</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>9.289953356394392</v>
+        <v>9.279801907602454</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.67835330453904</v>
+        <v>27.88744577479149</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.43431474606331</v>
+        <v>33.48052374303489</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.26915712299476</v>
+        <v>39.86792971423424</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.585449041373018</v>
+        <v>9.705909811376994</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.80622080976102</v>
+        <v>22.0613888500294</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.22962632220561</v>
+        <v>28.26582869398659</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.000588290642071</v>
+        <v>3.579691428391133</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.04212578998399</v>
+        <v>32.4625892593292</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.53056325635595</v>
+        <v>35.40623426122266</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>9.097162831089133</v>
+        <v>9.607196233399844</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.84221736866741</v>
+        <v>45.70194231720136</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>47.34959746705895</v>
+        <v>48.82966836285395</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.33001434504993</v>
+        <v>49.39334786745767</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.17457523627151</v>
+        <v>50.20238898968682</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.54055755322663</v>
+        <v>54.51835286482476</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.85028436680661</v>
+        <v>10.88128610542795</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.92495201098789</v>
+        <v>34.50817521318383</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.95412281002138</v>
+        <v>42.72427368609388</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.75590492799804</v>
+        <v>13.79766063902774</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.37353502877657</v>
+        <v>28.63351390118023</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.81766052136972</v>
+        <v>31.17023518273939</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.918205102609893</v>
+        <v>8.892120823180925</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.81451835712133</v>
+        <v>27.44555647544785</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.26460690108144</v>
+        <v>36.96542240702154</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.335141631109611</v>
+        <v>7.818166005075799</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.2665624652373</v>
+        <v>41.69472479714118</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5.793086193463562</v>
+        <v>6.628126604087939</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.88750053443065</v>
+        <v>14.83078188064559</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.0002517565777</v>
+        <v>23.53726578370963</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.417053928713649</v>
+        <v>4.036286144613239</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.04839494496239</v>
+        <v>28.65849778473205</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.8413877086865</v>
+        <v>35.54618134438726</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>3.52891501629092</v>
+        <v>4.169866392061191</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.65384920305706</v>
+        <v>39.66640500234944</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.61524826164443</v>
+        <v>44.7664585731334</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.14782964761811</v>
+        <v>39.51616431797852</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.23991795112721</v>
+        <v>41.99813754854918</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.98858527473921</v>
+        <v>47.56135428560034</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>7.661328758101167</v>
+        <v>7.608603693956454</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.43380028236836</v>
+        <v>24.47598620293296</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.07775214016632</v>
+        <v>44.91777573481146</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.406795572311005</v>
+        <v>9.6083171070308</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.00102539351962</v>
+        <v>24.73690429582771</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.61005087152271</v>
+        <v>30.66485686796873</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>9.485272081642456</v>
+        <v>9.314393338658508</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.22393575045484</v>
+        <v>25.74963341948082</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.34914367340366</v>
+        <v>35.21142350776208</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3.384624500860433</v>
+        <v>3.984564608596649</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.05554887214935</v>
+        <v>35.23619173500781</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.83342570341429</v>
+        <v>22.74265965154345</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.43771791259214</v>
+        <v>18.57330809226804</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.19814984079402</v>
+        <v>34.59095734648471</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.62964415977357</v>
+        <v>37.70998841724995</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.692851060342004</v>
+        <v>7.819638466358938</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.19497655637906</v>
+        <v>15.41974055920627</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.34317217966747</v>
+        <v>21.26271243129555</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.17026783249999</v>
+        <v>10.50645732733066</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.28735005447615</v>
+        <v>18.90394270402426</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.19848825942925</v>
+        <v>31.04916893687406</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.957793800630004</v>
+        <v>8.709166812864439</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.75385789947713</v>
+        <v>12.58127781991091</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.10819489559622</v>
+        <v>16.82484511635631</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.384923875471006</v>
+        <v>4.623433996566281</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.63107438918264</v>
+        <v>16.89580274815897</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.85021514310859</v>
+        <v>36.07012238341543</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.838708876512</v>
+        <v>20.04642085028328</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.82144310341026</v>
+        <v>42.61309485907068</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.29508502675171</v>
+        <v>47.84330074523667</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.876398360518039</v>
+        <v>6.259639751266306</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>15.49950161448422</v>
+        <v>16.02606841041935</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.40426465542893</v>
+        <v>25.64853978397979</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.37481811104695</v>
+        <v>49.02544969159644</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>44.67508112778445</v>
+        <v>44.30652906618575</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.07945047546127</v>
+        <v>53.56122855197194</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.40763991340235</v>
+        <v>56.46511855330232</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.93907539214477</v>
+        <v>20.44932593122658</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>47.98976291126309</v>
+        <v>47.58498837715787</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.31509358408811</v>
+        <v>50.46437321726025</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.43534391233674</v>
+        <v>22.9323635563976</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.52166513004541</v>
+        <v>32.28492892602641</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.37455681493864</v>
+        <v>40.28804450890254</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.13905959365265</v>
+        <v>10.01759268395295</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.70190303534246</v>
+        <v>37.51043933887834</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.07335750068928</v>
+        <v>42.6563296812355</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>5.735646807019066</v>
+        <v>6.50875286132176</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.03513236558319</v>
+        <v>53.24304983229868</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.76039691598071</v>
+        <v>63.79349641590083</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.49029769366142</v>
+        <v>65.06929979583228</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>74.91346569576285</v>
+        <v>74.15223132445426</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>80.06813618853964</v>
+        <v>78.713447687685</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.6010060678941</v>
+        <v>25.68869897533541</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.32359229260784</v>
+        <v>65.37385127005875</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>68.9277407773984</v>
+        <v>68.75459176165543</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.29111200993454</v>
+        <v>54.46235005346772</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.80039908706394</v>
+        <v>40.0730740829103</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.18889364664845</v>
+        <v>44.70894619215433</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>55.83346708460935</v>
+        <v>54.80783947310385</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.00922489688728</v>
+        <v>13.99175303245277</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.78919895540453</v>
+        <v>45.53109376441942</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.90092008737539</v>
+        <v>15.17266181563329</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.76331253709163</v>
+        <v>31.0943538921003</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.34810135172947</v>
+        <v>40.28439736555688</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.169477238034858</v>
+        <v>9.330381781690505</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.86475498358811</v>
+        <v>37.4405517853455</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.93904912517851</v>
+        <v>45.33898233485236</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.301723744012524</v>
+        <v>9.149040705700017</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.30920835244244</v>
+        <v>55.27420110046801</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>70.79045619148117</v>
+        <v>69.44302360962595</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.10656144455504</v>
+        <v>65.93674003458946</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>72.63906156204898</v>
+        <v>71.59789300763038</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>82.21673261917125</v>
+        <v>81.18494201022355</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.59061714262818</v>
+        <v>14.91501648291713</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.19987574152624</v>
+        <v>57.44769082594237</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>70.55893327472835</v>
+        <v>68.20757687678548</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>48.36468883225359</v>
+        <v>48.10086584591763</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.99510987200993</v>
+        <v>24.82188826067321</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.32792910118913</v>
+        <v>31.34960406489709</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.37191795019402</v>
+        <v>40.43994864536025</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.477440531304765</v>
+        <v>9.625045439306643</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.89136289644</v>
+        <v>41.2169731547832</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.79241791378072</v>
+        <v>47.42180062563445</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.16424714525544</v>
+        <v>11.35878467603812</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.44842765746334</v>
+        <v>29.5580757943523</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.32180519575893</v>
+        <v>42.96319791671419</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.41563479239513</v>
+        <v>10.18166123853279</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.43222438788339</v>
+        <v>32.91565856745181</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.33649930109028</v>
+        <v>47.41445938469666</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.940337745838104</v>
+        <v>3.646264794102709</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.34041671612798</v>
+        <v>46.17644293485473</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>69.58937425873073</v>
+        <v>68.42440999704284</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.4474569816377</v>
+        <v>51.03486501827648</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.11366733825132</v>
+        <v>61.33465912078452</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>83.25893465965565</v>
+        <v>81.54682540915886</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>8.898703799328914</v>
+        <v>8.869383309284441</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.62497198812893</v>
+        <v>49.71467286571511</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>69.83891034255882</v>
+        <v>68.73785644471039</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.4800809860319</v>
+        <v>15.9808034673042</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>14.63795576427274</v>
+        <v>16.21335338558223</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.37013847883005</v>
+        <v>24.01351306782647</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>8.897674900434765</v>
+        <v>10.18807993359789</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.7647216907868</v>
+        <v>20.8208753423745</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.62817629363548</v>
+        <v>22.56994687215827</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>11.10469298788741</v>
+        <v>12.41490305527802</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.63281674195181</v>
+        <v>30.23985351981908</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.00771960929668</v>
+        <v>31.13469205268333</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.07128837568489</v>
+        <v>17.45694743188307</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>17.9413777492821</v>
+        <v>19.46760205953682</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.14459777336139</v>
+        <v>19.57284071836092</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.1493465876251</v>
+        <v>20.54218751606701</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>16.86854366102567</v>
+        <v>17.89970724674973</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.05406217965629</v>
+        <v>31.65176454585526</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.6989924354237</v>
+        <v>15.6004042213319</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.310401179112</v>
+        <v>25.06896197446414</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.20953289074626</v>
+        <v>28.83405331718687</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>8.800212884144489</v>
+        <v>10.02403244619862</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.31396001321725</v>
+        <v>16.52784877015131</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>19.25240731622634</v>
+        <v>19.37827183061572</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.383687827650803</v>
+        <v>10.62559843225695</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.26434969431313</v>
+        <v>25.34316426589399</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>17.88069056043728</v>
+        <v>19.04026411363814</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>20.2908741299342</v>
+        <v>21.79049605783651</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.66673471834984</v>
+        <v>24.5266064260744</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>8.672700691368327</v>
+        <v>10.06302279642143</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.65337180962109</v>
+        <v>27.24107084914828</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>27.58444023180443</v>
+        <v>27.97192199406622</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>11.59572454961452</v>
+        <v>12.85198636726793</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.83223248737356</v>
+        <v>34.8914962722188</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.50556782553279</v>
+        <v>34.83894252084869</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.49062513231795</v>
+        <v>33.04014148367673</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.79347713528519</v>
+        <v>37.0683913318909</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.24000714141418</v>
+        <v>36.99486075232038</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>24.44797147806313</v>
+        <v>26.10583664989539</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.58785798859778</v>
+        <v>35.19527153612419</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>37.22768719186944</v>
+        <v>37.88379223037659</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.47773775991266</v>
+        <v>22.07183669245298</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.86817520713</v>
+        <v>29.37034841095993</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.55396129120522</v>
+        <v>30.39205958629996</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.710597675212604</v>
+        <v>10.72597860090557</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>31.11101715884318</v>
+        <v>30.04540355173024</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.47971749751962</v>
+        <v>30.98962988443317</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>9.9061605804193</v>
+        <v>11.04948589482239</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>43.20217269055206</v>
+        <v>41.46672397316929</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>10.38981058426011</v>
+        <v>11.80249149406976</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.54144910493125</v>
+        <v>18.2282830448325</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.21627761590208</v>
+        <v>23.97754114739748</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>7.58108162654781</v>
+        <v>9.16095483042012</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.32594258060556</v>
+        <v>26.0440975374176</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.96220876772709</v>
+        <v>27.51666369386406</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>11.37050873895089</v>
+        <v>12.90357545837595</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.64364705574391</v>
+        <v>34.89003248299332</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.58712985695973</v>
+        <v>36.97219325310225</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.38630358244546</v>
+        <v>37.33290110923071</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>37.6503356355287</v>
+        <v>38.29995776116359</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>43.90932108163008</v>
+        <v>43.83051704410517</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>11.59132718099762</v>
+        <v>11.89638084564908</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.67771306939638</v>
+        <v>24.92406281954074</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.16841918808025</v>
+        <v>31.5836485289672</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>16.83867676735598</v>
+        <v>16.98264474469529</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.72725293292147</v>
+        <v>28.40710188829188</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.94119639435533</v>
+        <v>29.93719007893136</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>9.313275094082567</v>
+        <v>10.44849656262384</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.47390277548556</v>
+        <v>27.63176414989211</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.59560915753535</v>
+        <v>31.47283916977245</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>11.54667262742529</v>
+        <v>12.62265192505746</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.2285176830018</v>
+        <v>40.11093491149043</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>8.175685892188479</v>
+        <v>10.12208118931857</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>12.46722186593397</v>
+        <v>14.60680857443756</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.18074033525165</v>
+        <v>22.12921345754084</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>7.757970116125428</v>
+        <v>9.227680050151452</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.56961854846067</v>
+        <v>23.67102844050309</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.46226385359104</v>
+        <v>28.77619295011243</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>7.879072758461849</v>
+        <v>9.503430275079488</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.71961358029765</v>
+        <v>30.94094647098599</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.48649261464479</v>
+        <v>35.69818481279744</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.02222756476618</v>
+        <v>33.52467031714929</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.89076113652732</v>
+        <v>35.3429491812426</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.1724675637778</v>
+        <v>40.3223164103631</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>8.321343568239513</v>
+        <v>10.0883393741957</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.48658077404166</v>
+        <v>20.29055453672468</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.27792090276859</v>
+        <v>34.39778397792925</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>13.76691233599437</v>
+        <v>14.33770520890611</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.67029682548914</v>
+        <v>26.18809827920452</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.46774058369032</v>
+        <v>29.21803787695368</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>9.360546661950966</v>
+        <v>10.50173364136439</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.48249872257369</v>
+        <v>25.66208712903713</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.07800438204133</v>
+        <v>29.97249262918115</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>8.728868954446362</v>
+        <v>10.05592991979359</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.58990660867028</v>
+        <v>34.6426275958388</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.23774759892646</v>
+        <v>28.11551467288186</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.10860839197982</v>
+        <v>23.01092388867139</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>35.88552089906911</v>
+        <v>34.51194774429466</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>36.80217289482873</v>
+        <v>35.5573553646366</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>14.8840576800601</v>
+        <v>15.15885974188594</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>23.13743054627431</v>
+        <v>22.60230704231486</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>28.84062687764203</v>
+        <v>27.641787346937</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.32368421513432</v>
+        <v>17.67970604404495</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>24.71742808786385</v>
+        <v>24.76305470373895</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>33.95745139616029</v>
+        <v>32.94438536543002</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>8.886814046544167</v>
+        <v>9.986774680548876</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>14.76069659365291</v>
+        <v>15.16044852806634</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>20.11273146700648</v>
+        <v>20.10455177417487</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>9.621013297032203</v>
+        <v>10.71554076393275</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.20265669146163</v>
+        <v>24.62035201240227</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>41.84884245489566</v>
+        <v>39.26848443426805</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.04936562990405</v>
+        <v>25.63481357639231</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>43.17394236189568</v>
+        <v>41.00605421054796</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>46.60603257769969</v>
+        <v>44.45656150031644</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>13.46797812853709</v>
+        <v>13.89101206701312</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>23.7382282020631</v>
+        <v>23.43379028290899</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>32.98080674966359</v>
+        <v>31.95238595531672</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>45.98857623307593</v>
+        <v>44.49367470938705</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>44.35304537469402</v>
+        <v>42.46259881921539</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>49.11421922611297</v>
+        <v>47.32894217415623</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>49.97714390284725</v>
+        <v>48.11667079150658</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.7354228718731</v>
+        <v>23.8220071075205</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>46.26507487601711</v>
+        <v>44.49179369760982</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>46.35901825118421</v>
+        <v>45.05191333969418</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.76062714211006</v>
+        <v>24.86716875115553</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>10.10117620141053</v>
+        <v>11.19178411441943</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>39.21115720442958</v>
+        <v>37.7808574954243</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>41.58175251374983</v>
+        <v>39.97399477244609</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>11.193191639331</v>
+        <v>12.55983424271547</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>53.62315243090174</v>
+        <v>51.12600502333633</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>58.12920814104972</v>
+        <v>55.56775580503161</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>58.5291257020207</v>
+        <v>55.55854241166066</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>64.22495544670572</v>
+        <v>61.60102850343274</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>66.89543116876591</v>
+        <v>64.06664998239791</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.3321107021454</v>
+        <v>29.13615791674704</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>60.84588618322931</v>
+        <v>58.35335102425018</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>61.48184322940439</v>
+        <v>59.07762351858356</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>48.75481244990988</v>
+        <v>47.30044342237014</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>41.80116048020946</v>
+        <v>39.74405730300531</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>44.6580240206896</v>
+        <v>42.81935779014062</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>49.37412676284951</v>
+        <v>47.36010047344435</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>18.06320875857451</v>
+        <v>17.83880379709656</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>43.04247545214418</v>
+        <v>41.56901846126186</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>45.64649749224499</v>
+        <v>44.23822220571921</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.83457883396381</v>
+        <v>18.39726809432486</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.98956983619686</v>
+        <v>30.90264058960303</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>38.43616871072135</v>
+        <v>37.71461898425453</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>9.182503357228271</v>
+        <v>10.67308274220891</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>37.04163482175161</v>
+        <v>35.61643155624733</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>40.62330679485179</v>
+        <v>39.43915860552359</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>12.19371352722048</v>
+        <v>13.77731290814036</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>53.42382480618398</v>
+        <v>50.75710235890342</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>61.37509347920417</v>
+        <v>58.5829744784135</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>59.3522265490667</v>
+        <v>56.67778746383728</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>64.26275731692544</v>
+        <v>61.17597506693786</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>68.83579678198737</v>
+        <v>66.12896651454773</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>18.35987810051468</v>
+        <v>18.66970724727558</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>59.17523411527802</v>
+        <v>55.4500303421343</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>63.38089257622786</v>
+        <v>59.84642644984999</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.60626255220492</v>
+        <v>42.23525045910577</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>29.62739746390265</v>
+        <v>28.56246241621943</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>33.91677838637614</v>
+        <v>32.73578496766892</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>37.53641169090002</v>
+        <v>36.65969204221308</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>14.74467350927147</v>
+        <v>14.98906066925616</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>39.02915317195857</v>
+        <v>37.26452480689354</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>42.15627290287838</v>
+        <v>40.9548900249484</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.60983644095212</v>
+        <v>16.24408473278999</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>30.54445041849811</v>
+        <v>30.12052144161512</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>40.4793993274351</v>
+        <v>39.34848272368876</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.929881309350094</v>
+        <v>10.92883159215535</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>35.35299088597629</v>
+        <v>33.68540596592629</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>41.6773242313531</v>
+        <v>40.30767352596747</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>8.939029685554779</v>
+        <v>10.32498809341996</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>50.26506528549884</v>
+        <v>47.35343482426654</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>60.74192427807189</v>
+        <v>57.82063557826057</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>53.80769181409487</v>
+        <v>50.76226140555907</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>62.68835156253903</v>
+        <v>58.70000512285258</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>69.79859207252873</v>
+        <v>66.32267998896171</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>15.05667894046918</v>
+        <v>15.37790753374193</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>56.95376747407592</v>
+        <v>53.18293942523974</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>63.91952119553848</v>
+        <v>60.7291758354555</v>
       </c>
     </row>
   </sheetData>
